--- a/Calculators/Spreadsheet Calculators/Keto-Related-Stuff.xlsx
+++ b/Calculators/Spreadsheet Calculators/Keto-Related-Stuff.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="18195" windowHeight="6915" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="18195" windowHeight="6915" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="P_NPE_Macros" sheetId="1" r:id="rId1"/>
     <sheet name="Electrolytes" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="TyG" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="24">
   <si>
     <t>Weight</t>
   </si>
@@ -79,6 +79,15 @@
   </si>
   <si>
     <t>Totals (2t-Lite Salt, 1t-Sea Salt)</t>
+  </si>
+  <si>
+    <t>TyG</t>
+  </si>
+  <si>
+    <t>Triglycerides</t>
+  </si>
+  <si>
+    <t>Fasting Glucose</t>
   </si>
 </sst>
 </file>
@@ -603,7 +612,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
@@ -992,12 +1001,41 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A2:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4">
+        <f>LN(B3*B2/2)</f>
+        <v>8.6777802560641852</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Calculators/Spreadsheet Calculators/Keto-Related-Stuff.xlsx
+++ b/Calculators/Spreadsheet Calculators/Keto-Related-Stuff.xlsx
@@ -123,8 +123,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1001,38 +1003,59 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" s="2">
+        <v>42765</v>
+      </c>
+      <c r="C1" s="2">
+        <v>42251</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>22</v>
       </c>
       <c r="B2">
         <v>114</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>23</v>
       </c>
       <c r="B3">
         <v>103</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>21</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <f>LN(B3*B2/2)</f>
         <v>8.6777802560641852</v>
+      </c>
+      <c r="C4" s="1">
+        <f>LN(C3*C2/2)</f>
+        <v>10.461959829769471</v>
       </c>
     </row>
   </sheetData>
